--- a/data/bkp/SC_001_CampoTeste.xlsx
+++ b/data/bkp/SC_001_CampoTeste.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\br-trdkysmgdias\Documents\Repos\KeyFramework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEE75B5-855D-423F-9137-95C4A8962F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC484B26-300C-4D2A-9E3C-2F6B3E898CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E31B522C-28CC-4738-9643-543934F79405}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{E31B522C-28CC-4738-9643-543934F79405}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_001_Access_Campo_Teste" sheetId="1" r:id="rId1"/>
     <sheet name="TC_002_Teste_Alert_Campo_Teste" sheetId="2" r:id="rId2"/>
+    <sheet name="TC_003_Teste_Tabela_Campo_Teste" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>vExpected Result</t>
   </si>
@@ -515,7 +516,56 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF898FA7-AFD7-4DF3-8681-74862F2FBA2F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
